--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ฑ(5).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ฑ(5).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanoon/Downloads/ข้อมูลพจนานุกรม ก-ฮ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/cleaned/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC8B67E-9064-B046-B8DA-B61E418A45AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{3CC8B67E-9064-B046-B8DA-B61E418A45AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45DED18C-8AC8-4824-8509-E4BE8E985342}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="1650" windowWidth="21120" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>headword</t>
   </si>
@@ -46,29 +46,32 @@
     <t>ฑาหะ</t>
   </si>
   <si>
-    <t>พยัญชนะตัวที่ ๑๗ เรียกว่า ฑอ มณโฑ เป็นอักษรต่ำ ใช้เป็นพยัญชนะต้น ออกเสียงเป็น ด บ้าง เช่น บัณฑิต มณฑป หรือ ท บ้าง เช่น มณฑล มณฑา และเป็นตัวสะกดในมาตรากดหรือแม่กด เช่น ษัฑ.</t>
-  </si>
-  <si>
     <t>น. เหลือบ.</t>
   </si>
   <si>
     <t>น. ผักดอง, เมี่ยง.</t>
   </si>
   <si>
-    <t>น. ผู้เผา; ไฟ.</t>
-  </si>
-  <si>
     <t>น. ความร้อน, ไฟ.</t>
   </si>
   <si>
     <t>related_word</t>
+  </si>
+  <si>
+    <t>? พยัญชนะตัวที่ ๑๗ เรียกว่า ฑอ มณโฑ เป็นอักษรต่ำ ใช้เป็นพยัญชนะต้น ออกเสียงเป็น ด บ้าง เช่น บัณฑิต มณฑป หรือ ท บ้าง เช่น มณฑล มณฑา และเป็นตัวสะกดในมาตรากดหรือแม่กด เช่น ษัฑ.</t>
+  </si>
+  <si>
+    <t>น. ผู้เผา</t>
+  </si>
+  <si>
+    <t>น. ไฟ.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,11 +81,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="TH Sarabun Chula"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="TH Sarabun Chula"/>
     </font>
   </fonts>
   <fills count="3">
@@ -134,7 +140,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -152,6 +158,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,21 +451,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -466,58 +476,66 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
